--- a/aggregate_info/aggregate_info_5.xlsx
+++ b/aggregate_info/aggregate_info_5.xlsx
@@ -624,7 +624,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -849,6 +849,2238 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Выездной лагерь МФФ в рамках &amp;quot;ITMO.Megabattle&amp;quot;</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>29 Сентября - 30 Сентября</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Лагерь</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>факультетский</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Отборочный этап конкурса &amp;quot;Мистер и Мисс ИТМО&amp;quot; 2019</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>28 Января - 07 Февраля</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>2019</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Кастинг</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>ФОРТ ИТМО Малибу</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>28 Апреля</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>2019</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Соревнование</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>День открытых дверей Университета ИТМО для будущих бакалавров</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>27 Января</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>2019</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>День открытых дверей</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Волонтер</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Информационная встреча о семестровом обмене</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>27 Января</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Конкурс</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Квиз в рамках 2 раунда &amp;quot;ITMO.Megabattle&amp;quot;</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>27 Апреля</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>2019</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Игра</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>5</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Отвальная в Ягодном</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>27 Августа - 28 Августа</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Праздник</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>ITMO.Megabattle Раунд 2 (2022)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>26 Февраля - 31 Мая</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Фестиваль</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Выезд 2 курса ФПИиКТ в УСОЦ Ягодное</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>26 Июня - 27 Июня</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Встреча</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>факультетский</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Гала-концерт фестиваля студенческого творчества &amp;quot;Весна в ИТМО&amp;quot; 2018</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>25 Мая</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Концерт</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>5</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Конкурс на участие в программе семестрового обмена в рамках международной академической мобильности на весенний семестр 2022 года</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>25 Августа - 15 Сентября</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Конкурс</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>5</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Посвящение в студенты первокурсников факультета ПИиКТ</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>24 Сентября</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Квест</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>факультетский</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Ответственный исполнитель</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>5</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Финал 2 раунда &amp;quot;ITMO.Megabattle&amp;quot;</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>24 Мая</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>2019</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Концерт</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>5</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Алые Паруса 2022</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>24 Июня - 25 Июня</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Праздник</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>городской</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Волонтер</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>5</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Мастер-класс по румбе для студентов Университета ИТМО</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>22 Мая</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Соревнование</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>5</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Межфакультетская игра КВН 2019</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>22 Апреля</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>2019</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Конкурс</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>5</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Школа Менеджера Kronbars</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>21 Марта - 15 Июня</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Школа</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>5</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Мастер-класс по пасодоблю среди студентов Университета ИТМО</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>20 Декабря</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Мастер-класс</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Дизайнер, Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>5</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>III Региональный открытый турнир Университета ИТМО по настольному теннису &amp;quot;Кубок ТТплэй&amp;quot;</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>19 Ноября - 20 Ноября</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Соревнование</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>городской</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Волонтер, Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>5</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>ITMO OPEN EDUCATION 2023</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>19 Мая</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Форум</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>общественный</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>5</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Сердца за любовь</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>18 Февраля - 19 Февраля</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Праздник</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>5</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>ITMO FAMILY DAY</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>18 Июня</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Фестиваль</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>городской</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Участник, Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>5</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>День Донора ИТМО апрель 2023</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>18 Апреля</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Акция</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Дизайнер, Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>5</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Лига Шашек Университета ИТМО (Второй тур)</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>17 Декабря</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Соревнование</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>5</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Школа &amp;quot;Адаптер университета ИТМО&amp;quot;</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>16 Февраля - 01 Июня</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Проект</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>5</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Неделя карьеры ИТМО</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>16 Мая - 20 Мая</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>День карьеры</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>5</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Посвящение в студенты первокурсников факультета ФиОИ</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>15 Сентября - 16 Сентября</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Посвящение</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>факультетский</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>5</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Проект &amp;quot;ITMO.STEP&amp;quot;. Осень 2018</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>15 Октября - 19 Ноября</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Проект</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>региональный</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Волонтер</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>5</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>ITMOtion Night. Start of the game</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>14 Сентября - 15 Сентября</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Вечеринка</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>городской</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>5</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Мастер-класс по медленному вальсу среди студентов Университета ИТМО</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>14 Мая</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Мастер-класс</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Дизайнер, Ответственный исполнитель, Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>5</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>VIII Международная конференция WUD@ITMO</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>12 Ноября</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Конференция</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>международный</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>5</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Чемпионат Университета ИТМО по пауэрлифтингу</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>12 Декабря</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>2019</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Соревнование</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>5</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Спортивные сборы секции бальных танцев</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>12 Августа - 18 Августа</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Лагерь</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Волонтер</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>5</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>DESIGNING WEB LANDING-PAGE FOR ENTREPRENEURSHIP (ONLINE EDITION)</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>11 Января - 12 Января</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Школа</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>международный</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>5</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Конкурс «От образования к профессии»</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>11 Ноября - 27 Ноября</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Конкурс</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>всероссийский</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>5</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>II Открытый кубок Университета ИТМО по бальным танцам</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>11 Декабря</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Соревнование</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>городской</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>5</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>II Открытый кубок Университета ИТМО по бальным танцам(Латиноамериканская программа)</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>11 Декабря</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Соревнование</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>всероссийский</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>5</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>II Открытый кубок Университета ИТМО по бальным танцам(Европейская программа)</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>11 Декабря</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Соревнование</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>всероссийский</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>5</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Мистер и Мисс ИТМО 2019</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>10 Февраля - 12 Апреля</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>2019</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Конкурс</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>городской</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>5</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Выезд в УСОЦ &amp;quot;Ягодное&amp;quot; Факультета ПИиКТ</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>10 Июня - 11 Июня</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Выезд</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>факультетский</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>5</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Закрытие спортивного сезона &amp;quot;BARS PARTY&amp;quot;</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>09 Июня</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Вечеринка</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>5</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Фестиваль студенческих клубов «CLUB.FEST» </t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>08 Сентября - 09 Сентября</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Фестиваль</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>5</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Закрытие спортивного сезона &amp;quot;BARS PARTY&amp;quot;</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>08 Июня - 09 Июня</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Вечеринка</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>5</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Закрытие спортивного сезона 2018-2019</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>07 Июня</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>2019</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Торжества</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>5</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Выпускной в Университете ИТМО «ИТМО.Live-2019»</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>06 Июля</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>2019</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Торжества</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>городской</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Волонтер</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>5</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Открытый кубок Университета ИТМО по бальным танцам</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>06 Декабря</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Соревнование</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>городской</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>5</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>ITMO Open Science</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>06 Апреля</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Фестиваль</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>5</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Студенческая лига Санкт-Петербурга по настольному теннису (3 сезон)</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>05 Марта - 23 Апреля</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Соревнование</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>городской</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Волонтер, Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>5</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Спортивные сборы секции бальных танцев</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>05 Августа - 11 Августа</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Лагерь</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Волонтер, Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>5</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>ITMOTION Night Enter Day</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>03 Сентября - 04 Сентября</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Вечеринка</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>городской</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>5</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>XII Конгресс молодых ученых</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>03 Апреля - 06 Апреля</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Конгресс</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>всероссийский</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Спикер</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>5</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Межфакультетская игра КВН Университета ИТМО (при открытой лиге КВН POINT)</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>02 Ноября</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Конкурс</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>5</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Межфакультетская игра КВН Университета ИТМО</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>02 Ноября</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Игра</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>5</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>ITMO.LiVE 2022 — Выпускной Университета ИТМО</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>02 Июля</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Встреча</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>5</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Проект «Buddy system»</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>01 Сентября - 31 Января</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Проект</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>5</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Проект «Buddy system»</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>01 Сентября - 31 Января</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Проект</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>5</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>ITMO_ENTER: Offline</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>01 Сентября - 03 Сентября</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Встреча</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Волонтер</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>5</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Посвящение первокурсников в студенты Университета ИТМО</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>01 Сентября</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Праздник</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>городской</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>5</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Выезд ПИиКТ в УСОЦ &amp;quot;Ягодное&amp;quot;</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>01 Октября - 02 Октября</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Слет</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>факультетский</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>5</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Международный фестиваль медиаискусства Киберфест-13</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>01 Ноября - 04 Декабря</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Выставка</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>международный</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Волонтер</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>5</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>ITMOTION Night Alumni Day</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>01 Июля - 02 Июля</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Вечеринка</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>городской</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>5</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Экстрим осень 2018. Открытие зимы в ИТМО</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>01 Декабря - 02 Декабря</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Турнир</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
